--- a/Fake_Results.xlsx
+++ b/Fake_Results.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="11">
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Matched Fake Company</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Sankar Gunda – Senior QA Automation Engineer with Selenium (Java &amp; Python) (1).docx</t>
+  </si>
+  <si>
+    <t>Sai Teja Resume.docx</t>
+  </si>
+  <si>
+    <t>Sai Teja Resume.doc</t>
+  </si>
+  <si>
+    <t>03 services</t>
+  </si>
+  <si>
+    <t>• Currently working with 03 Services as a Senior SDET Engineer since January 2025.</t>
+  </si>
+  <si>
+    <t>03 Services</t>
+  </si>
+  <si>
+    <t>FAKE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,64 +403,2254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Resume</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Matched Fake Company</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sankar Gunda – Senior QA Automation Engineer with Selenium (Java &amp; Python) (1).docx</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>a software</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Worked with Professional Access Software Development (P) Limited – Division of Zensar Technologies, Hyderabad as a Software Engineer from Oct 2014 to June 2016.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FAKE</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>